--- a/medicine/Mort/Les_Hommes_de_ma_mère/Les_Hommes_de_ma_mère.xlsx
+++ b/medicine/Mort/Les_Hommes_de_ma_mère/Les_Hommes_de_ma_mère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Hommes_de_ma_m%C3%A8re</t>
+          <t>Les_Hommes_de_ma_mère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hommes de ma mère est un film québécois réalisé par Anik Jean et scénarisé par Maryse Latendresse sorti en 2023 et mettant en vedette Léane Labrèche-Dor.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Hommes_de_ma_m%C3%A8re</t>
+          <t>Les_Hommes_de_ma_mère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elsie, jeune femme dans la fin vingtaine, doit, pour respecter les volontés de sa mère qui vient de mourir, retrouver les cinq ex-maris de celle-ci pour disperser ses cendres en cinq endroits significatifs. Elle devra donc renouer avec ses anciens beaux-pères mais surtout avec son père avec lequel elle est en mauvais termes depuis longtemps.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Hommes_de_ma_m%C3%A8re</t>
+          <t>Les_Hommes_de_ma_mère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : IMDb et Films du Québec[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : IMDb et Films du Québec
 Titre original : Les Hommes de ma mère
 Réalisation : Anik Jean
 Scénario : Maryse Latendresse
@@ -566,10 +582,10 @@
 Genre : drame
 Durée : 126 minutes
 Dates de sortie :
-Canada : 25 juillet 2023 (première au cinéma Impérial à Montréal)[2]
+Canada : 25 juillet 2023 (première au cinéma Impérial à Montréal)
 Canada : 4 août 2023 (sortie en salle au Québec)
 Classification :
-Québec : Visa général[3]</t>
+Québec : Visa général</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Hommes_de_ma_m%C3%A8re</t>
+          <t>Les_Hommes_de_ma_mère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Léane Labrèche-Dor : Elsie
 Marc Messier : Jacques-Antoine
